--- a/biology/Médecine/Josef_Gerstmann/Josef_Gerstmann.xlsx
+++ b/biology/Médecine/Josef_Gerstmann/Josef_Gerstmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Gerstmann (17 juillet 1887, Lemberg – 23 mars 1969, New York) est un neurologue américain d'origine autrichienne. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerstmann a étudié la médecine à l'université de Vienne entre 1906 et 1912, année d'obtention de son diplôme. Au cours de la première guerre mondiale, il est agent sanitaire. Par la suite, il a travaillé à la clinique de psychiatrie-neurologie à Vienne, avec Wagner-Jauregg, et, après être devenu professeur, il est devenu chef de l'Institut Neurologique de Maria-Theresien-Schlössel, à Vienne, en 1930. Étant juif, il émigré avec sa femme Martha vers les États-Unis en 1938, lors de l'Anschluss.
-Initialement, Gerstmann a travaillé à l'hôpital de Springfield dans l'État de l'Ohio, et de 1940 à 1941, en tant qu'assistant de recherche et neurologue consultant à l'hôpital Sainte-Elisabeth à Washington. En 1941, il s'est installé à New York et est devenu associé de recherche à l'institut neurologique de New York en tant que neuropsychiatre à l'hôpital Goldwater Memorial. Gerstmann a ouvert un cabinet privé au 240 Central Park South. Il a été nommé membre honoraire de l'association américaine de psychiatrie et de l'académie de neurologie, membre de l'association américaine de psychopathologie, de la société de psychothérapie, de la société Pirquet et de la société Rudolf Virchow. Gerstmann est mort le 23 mars 1969[1] dans son appartement à New York.
+Initialement, Gerstmann a travaillé à l'hôpital de Springfield dans l'État de l'Ohio, et de 1940 à 1941, en tant qu'assistant de recherche et neurologue consultant à l'hôpital Sainte-Elisabeth à Washington. En 1941, il s'est installé à New York et est devenu associé de recherche à l'institut neurologique de New York en tant que neuropsychiatre à l'hôpital Goldwater Memorial. Gerstmann a ouvert un cabinet privé au 240 Central Park South. Il a été nommé membre honoraire de l'association américaine de psychiatrie et de l'académie de neurologie, membre de l'association américaine de psychopathologie, de la société de psychothérapie, de la société Pirquet et de la société Rudolf Virchow. Gerstmann est mort le 23 mars 1969 dans son appartement à New York.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Gerstmann et le syndrome de Gerstmann–Sträussler–Scheinker sont nommés en référence à lui.
 </t>
